--- a/Fase 2/Evidencias Proyecto/Evidencias de documentación/burn-up-chart.xlsx
+++ b/Fase 2/Evidencias Proyecto/Evidencias de documentación/burn-up-chart.xlsx
@@ -16,9 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>BURN-UP CHART</t>
+  </si>
+  <si>
+    <t>Formato en horas laborales 40/h por semana</t>
   </si>
   <si>
     <t>Sprint</t>
@@ -189,7 +192,9 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="10" fillId="3" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
@@ -310,11 +315,11 @@
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="1024445558"/>
-        <c:axId val="1275912446"/>
+        <c:axId val="1494765310"/>
+        <c:axId val="1855861961"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1024445558"/>
+        <c:axId val="1494765310"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -366,10 +371,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1275912446"/>
+        <c:crossAx val="1855861961"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1275912446"/>
+        <c:axId val="1855861961"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -433,7 +438,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1024445558"/>
+        <c:crossAx val="1494765310"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -746,7 +751,9 @@
       <c r="O4" s="8"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="9"/>
+      <c r="A5" s="9" t="s">
+        <v>1</v>
+      </c>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
@@ -760,7 +767,7 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="12" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" s="13">
         <v>0.0</v>
@@ -782,44 +789,44 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="14" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" s="15">
-        <v>409.0</v>
+        <v>109.0</v>
       </c>
       <c r="C8" s="16">
-        <v>336.0</v>
+        <v>124.0</v>
       </c>
       <c r="D8" s="16">
-        <v>177.0</v>
+        <v>113.0</v>
       </c>
       <c r="E8" s="16">
-        <v>0.0</v>
+        <v>156.0</v>
       </c>
       <c r="F8" s="16">
-        <v>0.0</v>
+        <v>112.0</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="14" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" s="16">
-        <v>672.0</v>
+        <v>120.0</v>
       </c>
       <c r="C9" s="16">
-        <v>504.0</v>
+        <v>160.0</v>
       </c>
       <c r="D9" s="16">
-        <v>504.0</v>
+        <v>120.0</v>
       </c>
       <c r="E9" s="16">
-        <v>504.0</v>
+        <v>160.0</v>
       </c>
       <c r="F9" s="16">
-        <v>336.0</v>
+        <v>128.0</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="17"/>
